--- a/data/用户给菜品打分表.xlsx
+++ b/data/用户给菜品打分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -261,6 +261,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -268,7 +275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,21 +297,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -312,20 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -334,15 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,16 +382,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,30 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,144 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -563,7 +425,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,7 +626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,34 +664,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +693,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,13 +932,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -950,8 +950,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="30480"/>
-          <a:ext cx="586740" cy="327660"/>
+          <a:off x="30480" y="30480"/>
+          <a:ext cx="655320" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1264,184 +1264,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AP35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="11.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="10.6666666666667" customWidth="1"/>
-    <col min="23" max="24" width="10.8888888888889" customWidth="1"/>
-    <col min="26" max="26" width="8.88888888888889" customWidth="1"/>
-    <col min="27" max="27" width="10.5555555555556" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="10.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="11.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="10.6666666666667" customWidth="1"/>
+    <col min="22" max="23" width="10.8916666666667" customWidth="1"/>
+    <col min="25" max="25" width="8.89166666666667" customWidth="1"/>
+    <col min="26" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:42">
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:41">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>8</v>
+      </c>
       <c r="I3" s="3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>6</v>
+      </c>
       <c r="N3" s="3">
         <v>6</v>
       </c>
-      <c r="O3" s="3">
-        <v>6</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3">
+        <v>8</v>
+      </c>
       <c r="T3" s="3">
         <v>8</v>
       </c>
@@ -1451,257 +1454,257 @@
       <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
+      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="AA3" s="3">
+        <v>4</v>
+      </c>
       <c r="AB3" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="3">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3">
+        <v>7</v>
+      </c>
       <c r="AF3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH3" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="3">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3">
+        <v>7</v>
+      </c>
       <c r="AL3" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3">
+      <c r="AO3" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:42">
-      <c r="B4" t="s">
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
       <c r="I4" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3">
         <v>7</v>
       </c>
       <c r="M4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O4" s="3">
-        <v>6</v>
-      </c>
-      <c r="P4" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3">
-        <v>5</v>
-      </c>
-      <c r="T4" s="3"/>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>5</v>
+      </c>
       <c r="U4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V4" s="3">
-        <v>8</v>
-      </c>
-      <c r="W4" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3">
+        <v>7</v>
+      </c>
       <c r="AA4" s="3">
         <v>7</v>
       </c>
       <c r="AB4" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE4" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3">
+        <v>9</v>
+      </c>
       <c r="AF4" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG4" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="3">
         <v>5</v>
       </c>
       <c r="AI4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="3">
         <v>10</v>
       </c>
-      <c r="AK4" s="3">
-        <v>6</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>4</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="2:42">
-      <c r="B5" t="s">
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>8</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>8</v>
-      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
+      <c r="N5" s="3">
         <v>9</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>6</v>
+      </c>
       <c r="Q5" s="3">
         <v>6</v>
       </c>
-      <c r="R5" s="3">
-        <v>6</v>
-      </c>
+      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3">
-        <v>6</v>
-      </c>
+      <c r="T5" s="3">
+        <v>5</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3">
-        <v>8</v>
-      </c>
+      <c r="Y5" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3">
-        <v>7</v>
-      </c>
+      <c r="AB5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3">
-        <v>6</v>
-      </c>
+      <c r="AI5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="3"/>
+      <c r="AN5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="2:42">
-      <c r="B6" t="s">
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>9</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
       <c r="G6" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
         <v>9</v>
       </c>
-      <c r="J6" s="3">
-        <v>9</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3">
-        <v>8</v>
-      </c>
+      <c r="V6" s="3">
+        <v>8</v>
+      </c>
+      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="3">
+        <v>4</v>
+      </c>
       <c r="AA6" s="3">
         <v>4</v>
       </c>
@@ -1709,117 +1712,117 @@
         <v>4</v>
       </c>
       <c r="AC6" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE6" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH6" s="3">
         <v>7</v>
       </c>
       <c r="AI6" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="2:42">
-      <c r="B7" t="s">
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
       <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>7</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>8</v>
-      </c>
-      <c r="M7" s="3"/>
+      <c r="I7" s="3">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
       <c r="N7" s="3">
         <v>6</v>
       </c>
       <c r="O7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3">
+        <v>6</v>
+      </c>
       <c r="T7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" s="3">
-        <v>6</v>
-      </c>
-      <c r="W7" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3">
+      <c r="Y7" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3">
         <v>9</v>
       </c>
-      <c r="AE7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3">
+        <v>8</v>
+      </c>
       <c r="AF7" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH7" s="3">
         <v>6</v>
       </c>
       <c r="AI7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" s="3">
         <v>6</v>
@@ -1828,22 +1831,22 @@
         <v>6</v>
       </c>
       <c r="AM7" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN7" s="3">
         <v>8</v>
       </c>
       <c r="AO7" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP7" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:42">
-      <c r="B8" t="s">
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
@@ -1854,15 +1857,15 @@
         <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
       <c r="J8" s="3">
         <v>5</v>
       </c>
@@ -1873,10 +1876,10 @@
         <v>5</v>
       </c>
       <c r="M8" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" s="3">
         <v>5</v>
@@ -1917,18 +1920,18 @@
       <c r="AA8" s="3">
         <v>5</v>
       </c>
-      <c r="AB8" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3">
+        <v>7</v>
+      </c>
       <c r="AD8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="3">
         <v>5</v>
       </c>
       <c r="AF8" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="3">
         <v>8</v>
@@ -1937,53 +1940,53 @@
         <v>8</v>
       </c>
       <c r="AI8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="3">
         <v>7</v>
       </c>
       <c r="AK8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="3">
         <v>5</v>
       </c>
       <c r="AM8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO8" s="3">
         <v>5</v>
       </c>
-      <c r="AP8" s="3">
-        <v>5</v>
-      </c>
     </row>
-    <row r="9" spans="2:42">
-      <c r="B9" t="s">
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
       <c r="G9" s="3">
         <v>7</v>
       </c>
-      <c r="H9" s="3">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
       <c r="J9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>8</v>
@@ -1994,38 +1997,38 @@
       <c r="M9" s="3">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
-        <v>8</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3">
-        <v>7</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3">
-        <v>8</v>
-      </c>
+      <c r="S9" s="3">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
+        <v>8</v>
+      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="3"/>
+      <c r="Y9" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3">
+        <v>6</v>
+      </c>
       <c r="AF9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="3">
         <v>7</v>
@@ -2037,124 +2040,124 @@
         <v>7</v>
       </c>
       <c r="AJ9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" s="3">
-        <v>6</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3">
+      <c r="AO9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:42">
-      <c r="B10" t="s">
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>7</v>
+      </c>
       <c r="K10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="3">
-        <v>7</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3">
-        <v>8</v>
-      </c>
-      <c r="U10" s="3"/>
+      <c r="S10" s="3">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3">
+        <v>5</v>
+      </c>
       <c r="V10" s="3">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3">
+      <c r="AA10" s="3">
         <v>4</v>
       </c>
-      <c r="AC10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3">
+        <v>5</v>
+      </c>
       <c r="AD10" s="3">
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3">
+        <v>3</v>
+      </c>
       <c r="AG10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="3">
         <v>5</v>
       </c>
-      <c r="AI10" s="3">
-        <v>5</v>
-      </c>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
+      <c r="AN10" s="3">
+        <v>8</v>
+      </c>
       <c r="AO10" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:42">
-      <c r="B11" t="s">
+    <row r="11" spans="1:41">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
       <c r="G11" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>8</v>
+      </c>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -2165,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="N11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="3">
         <v>7</v>
       </c>
-      <c r="P11" s="3">
-        <v>7</v>
-      </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>8</v>
+      </c>
       <c r="S11" s="3">
         <v>8</v>
       </c>
@@ -2184,22 +2187,22 @@
       <c r="U11" s="3">
         <v>8</v>
       </c>
-      <c r="V11" s="3">
-        <v>8</v>
-      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="3">
+        <v>7</v>
+      </c>
       <c r="Z11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA11" s="3">
         <v>8</v>
       </c>
-      <c r="AB11" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3">
+        <v>8</v>
+      </c>
       <c r="AD11" s="3">
         <v>8</v>
       </c>
@@ -2225,87 +2228,87 @@
         <v>8</v>
       </c>
       <c r="AL11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM11" s="3">
         <v>7</v>
       </c>
       <c r="AN11" s="3">
-        <v>7</v>
-      </c>
-      <c r="AO11" s="3">
         <v>10</v>
       </c>
-      <c r="AP11" s="3"/>
+      <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="2:42">
-      <c r="B12" t="s">
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
       <c r="I12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
-        <v>7</v>
-      </c>
       <c r="K12" s="3">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>9</v>
+      </c>
       <c r="N12" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" s="3">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
-        <v>8</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3">
+        <v>7</v>
+      </c>
       <c r="U12" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V12" s="3">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="3">
+        <v>10</v>
+      </c>
       <c r="AB12" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE12" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3">
+        <v>7</v>
+      </c>
       <c r="AF12" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH12" s="3">
         <v>9</v>
@@ -2317,50 +2320,48 @@
         <v>9</v>
       </c>
       <c r="AK12" s="3">
-        <v>9</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AM12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3">
+        <v>10</v>
+      </c>
       <c r="AN12" s="3">
         <v>10</v>
       </c>
       <c r="AO12" s="3">
-        <v>10</v>
-      </c>
-      <c r="AP12" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:42">
-      <c r="B13" t="s">
+    <row r="13" spans="1:41">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
       <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>9</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3">
+      <c r="O13" s="3">
         <v>10</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2368,24 +2369,26 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="X13" s="3">
+        <v>7</v>
+      </c>
       <c r="Y13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="3">
         <v>6</v>
       </c>
       <c r="AB13" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="3">
+        <v>8</v>
+      </c>
       <c r="AF13" s="3">
         <v>8</v>
       </c>
@@ -2395,55 +2398,55 @@
       <c r="AH13" s="3">
         <v>8</v>
       </c>
-      <c r="AI13" s="3">
-        <v>8</v>
-      </c>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3">
-        <v>6</v>
-      </c>
+      <c r="AK13" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3">
+      <c r="AN13" s="3">
         <v>10</v>
       </c>
-      <c r="AP13" s="3"/>
+      <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="2:42">
-      <c r="B14" t="s">
+    <row r="14" spans="1:41">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>8</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>8</v>
+      </c>
       <c r="O14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P14" s="3">
         <v>7</v>
@@ -2452,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S14" s="3">
         <v>9</v>
@@ -2461,150 +2464,150 @@
         <v>9</v>
       </c>
       <c r="U14" s="3">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3">
         <v>9</v>
       </c>
-      <c r="V14" s="3">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="3"/>
       <c r="AJ14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="AK14" s="3">
-        <v>7</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
       <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
         <v>10</v>
       </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3">
+      <c r="O15" s="3">
         <v>1</v>
       </c>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>10</v>
+      </c>
       <c r="S15" s="3">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
-        <v>10</v>
-      </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3">
         <v>1</v>
       </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3">
+        <v>9</v>
+      </c>
       <c r="Y15" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="3">
         <v>1</v>
       </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3">
-        <v>5</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3">
+      <c r="AE15" s="3">
         <v>10</v>
       </c>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3">
-        <v>8</v>
-      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
+      <c r="AJ15" s="3">
+        <v>5</v>
+      </c>
       <c r="AK15" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL15" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM15" s="3">
         <v>9</v>
       </c>
       <c r="AN15" s="3">
-        <v>9</v>
-      </c>
-      <c r="AO15" s="3">
         <v>10</v>
       </c>
-      <c r="AP15" s="3"/>
+      <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="2:42">
-      <c r="B16" t="s">
+    <row r="16" spans="1:41">
+      <c r="A16" t="s">
         <v>54</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -2615,123 +2618,121 @@
       <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>8</v>
+      </c>
       <c r="O16" s="3">
-        <v>8</v>
-      </c>
-      <c r="P16" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3">
+        <v>9</v>
+      </c>
       <c r="U16" s="3">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
+        <v>6</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3">
         <v>9</v>
       </c>
-      <c r="V16" s="3">
-        <v>3</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>4</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE16" s="3"/>
       <c r="AF16" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG16" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="3">
         <v>8</v>
       </c>
       <c r="AI16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ16" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="3">
         <v>8</v>
       </c>
       <c r="AL16" s="3">
-        <v>8</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="2:42">
-      <c r="B17" t="s">
+    <row r="17" spans="1:41">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
       <c r="O17" s="3">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
         <v>4</v>
       </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3">
+        <v>5</v>
+      </c>
       <c r="U17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V17" s="3">
-        <v>6</v>
-      </c>
-      <c r="W17" s="3">
         <v>3</v>
       </c>
+      <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2739,13 +2740,13 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="AE17" s="3">
+        <v>1</v>
+      </c>
       <c r="AF17" s="3">
         <v>1</v>
       </c>
-      <c r="AG17" s="3">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
@@ -2753,119 +2754,121 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3">
+      <c r="AO17" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:42">
-      <c r="B18" t="s">
+    <row r="18" spans="1:41">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3"/>
+      <c r="K18" s="3">
+        <v>7</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <v>6</v>
+      </c>
       <c r="N18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="3">
         <v>5</v>
       </c>
-      <c r="R18" s="3">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
+        <v>6</v>
+      </c>
       <c r="T18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W18" s="3">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3">
+        <v>6</v>
+      </c>
       <c r="Z18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="3">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3">
+        <v>7</v>
+      </c>
       <c r="AF18" s="3">
         <v>7</v>
       </c>
-      <c r="AG18" s="3">
-        <v>7</v>
-      </c>
+      <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
+      <c r="AI18" s="3">
+        <v>8</v>
+      </c>
       <c r="AJ18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3">
-        <v>7</v>
-      </c>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:42">
-      <c r="B19" t="s">
+    <row r="19" spans="1:41">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
       <c r="C19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="3">
         <v>7</v>
@@ -2877,31 +2880,31 @@
         <v>7</v>
       </c>
       <c r="J19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="3">
         <v>8</v>
       </c>
       <c r="P19" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="3">
         <v>6</v>
       </c>
       <c r="R19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S19" s="3">
         <v>7</v>
@@ -2910,28 +2913,28 @@
         <v>7</v>
       </c>
       <c r="U19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W19" s="3">
         <v>7</v>
       </c>
       <c r="X19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="3">
         <v>5</v>
       </c>
       <c r="AA19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="3">
         <v>5</v>
@@ -2946,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="AG19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH19" s="3">
         <v>6</v>
@@ -2955,78 +2958,78 @@
         <v>6</v>
       </c>
       <c r="AJ19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM19" s="3">
         <v>7</v>
       </c>
       <c r="AN19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO19" s="3">
-        <v>6</v>
-      </c>
-      <c r="AP19" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
-      <c r="B20" t="s">
+    <row r="20" spans="1:41">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>4</v>
       </c>
       <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>4</v>
@@ -3035,285 +3038,285 @@
         <v>4</v>
       </c>
       <c r="U20" s="3">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
+        <v>6</v>
+      </c>
+      <c r="X20" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="3">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
-        <v>8</v>
-      </c>
-      <c r="X20" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="3">
         <v>4</v>
       </c>
-      <c r="AC20" s="3">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>8</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>8</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>8</v>
-      </c>
       <c r="AG20" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="3">
         <v>4</v>
       </c>
-      <c r="AH20" s="3">
-        <v>7</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>7</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>6</v>
-      </c>
       <c r="AL20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
         <v>4</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>8</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>7</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>6</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:42">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6</v>
+      </c>
+      <c r="K21" s="3">
+        <v>7</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6</v>
+      </c>
+      <c r="P21" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>7</v>
+      </c>
+      <c r="R21" s="3">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
+        <v>7</v>
+      </c>
+      <c r="T21" s="3">
+        <v>6</v>
+      </c>
+      <c r="U21" s="3">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
+        <v>7</v>
+      </c>
+      <c r="W21" s="3">
+        <v>6</v>
+      </c>
+      <c r="X21" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>6</v>
-      </c>
-      <c r="I21" s="3">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3">
-        <v>6</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>7</v>
-      </c>
-      <c r="O21" s="3">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>7</v>
-      </c>
-      <c r="R21" s="3">
-        <v>7</v>
-      </c>
-      <c r="S21" s="3">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
-        <v>7</v>
-      </c>
-      <c r="U21" s="3">
-        <v>6</v>
-      </c>
-      <c r="V21" s="3">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
-        <v>7</v>
-      </c>
-      <c r="X21" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>6</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>5</v>
-      </c>
       <c r="AD21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF21" s="3">
         <v>6</v>
       </c>
       <c r="AG21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI21" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN21" s="3">
         <v>5</v>
       </c>
       <c r="AO21" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP21" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:42">
-      <c r="B22" t="s">
+    <row r="22" spans="1:41">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
       <c r="C22" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7</v>
+      </c>
+      <c r="M22" s="3">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
-        <v>7</v>
-      </c>
       <c r="N22" s="3">
+        <v>9</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7</v>
+      </c>
+      <c r="P22" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7</v>
+      </c>
+      <c r="S22" s="3">
+        <v>7</v>
+      </c>
+      <c r="T22" s="3">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
+        <v>6</v>
+      </c>
+      <c r="W22" s="3">
+        <v>7</v>
+      </c>
+      <c r="X22" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="3">
         <v>10</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9</v>
-      </c>
-      <c r="P22" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7</v>
-      </c>
-      <c r="R22" s="3">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7</v>
-      </c>
-      <c r="T22" s="3">
-        <v>7</v>
-      </c>
-      <c r="U22" s="3">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
-        <v>6</v>
-      </c>
-      <c r="X22" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>6</v>
       </c>
       <c r="AA22" s="3">
         <v>10</v>
       </c>
       <c r="AB22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="3">
         <v>10</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>7</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>8</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>6</v>
       </c>
       <c r="AF22" s="3">
         <v>10</v>
@@ -3322,7 +3325,7 @@
         <v>10</v>
       </c>
       <c r="AH22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI22" s="3">
         <v>8</v>
@@ -3331,120 +3334,120 @@
         <v>8</v>
       </c>
       <c r="AK22" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL22" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN22" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO22" s="3">
         <v>8</v>
       </c>
-      <c r="AP22" s="3">
-        <v>8</v>
-      </c>
     </row>
-    <row r="23" spans="2:42">
-      <c r="B23" t="s">
+    <row r="23" spans="1:41">
+      <c r="A23" t="s">
         <v>61</v>
       </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
       <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23" s="3">
         <v>4</v>
       </c>
       <c r="J23" s="3">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3">
         <v>4</v>
       </c>
-      <c r="K23" s="3">
-        <v>7</v>
-      </c>
-      <c r="L23" s="3">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
       <c r="Q23" s="3">
         <v>4</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3">
         <v>4</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3">
-        <v>8</v>
-      </c>
-      <c r="V23" s="3">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
       <c r="Y23" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="3">
         <v>4</v>
       </c>
-      <c r="Z23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3">
-        <v>8</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>6</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>5</v>
-      </c>
       <c r="AM23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN23" s="3">
         <v>6</v>
@@ -3452,49 +3455,49 @@
       <c r="AO23" s="3">
         <v>6</v>
       </c>
-      <c r="AP23" s="3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="24" spans="2:42">
-      <c r="B24" t="s">
+    <row r="24" spans="1:41">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
       <c r="C24" s="3">
         <v>8</v>
       </c>
       <c r="D24" s="3">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="H24" s="3">
         <v>1</v>
       </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
       <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3">
-        <v>7</v>
-      </c>
-      <c r="R24" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
+        <v>8</v>
+      </c>
       <c r="S24" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T24" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U24" s="3">
         <v>2</v>
@@ -3502,188 +3505,188 @@
       <c r="V24" s="3">
         <v>2</v>
       </c>
-      <c r="W24" s="3">
-        <v>2</v>
-      </c>
+      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
+      <c r="Y24" s="3">
         <v>9</v>
       </c>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="AC24" s="3">
+        <v>2</v>
+      </c>
       <c r="AD24" s="3">
         <v>2</v>
       </c>
       <c r="AE24" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF24" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG24" s="3">
-        <v>8</v>
-      </c>
-      <c r="AH24" s="3">
         <v>1</v>
       </c>
-      <c r="AI24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3">
+        <v>5</v>
+      </c>
       <c r="AJ24" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK24" s="3">
         <v>7</v>
       </c>
       <c r="AL24" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM24" s="3">
         <v>9</v>
       </c>
+      <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="2:42">
-      <c r="B25" t="s">
+    <row r="25" spans="1:41">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
       <c r="I25" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25" s="3">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>6</v>
+      </c>
       <c r="O25" s="3">
-        <v>6</v>
-      </c>
-      <c r="P25" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3">
-        <v>5</v>
-      </c>
-      <c r="U25" s="3"/>
+      <c r="S25" s="3">
+        <v>5</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3">
+        <v>2</v>
+      </c>
       <c r="V25" s="3">
         <v>2</v>
       </c>
       <c r="W25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="3">
         <v>5</v>
       </c>
-      <c r="Z25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3">
-        <v>6</v>
-      </c>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="3">
+        <v>7</v>
+      </c>
       <c r="AG25" s="3">
-        <v>7</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>8</v>
-      </c>
-      <c r="AI25" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3">
+        <v>8</v>
+      </c>
       <c r="AJ25" s="3">
         <v>8</v>
       </c>
-      <c r="AK25" s="3">
-        <v>8</v>
-      </c>
+      <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
     </row>
-    <row r="26" spans="2:42">
-      <c r="B26" t="s">
+    <row r="26" spans="1:41">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
       <c r="C26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
         <v>7</v>
       </c>
       <c r="G26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K26" s="3">
         <v>7</v>
       </c>
       <c r="L26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26" s="3">
         <v>7</v>
       </c>
       <c r="O26" s="3">
-        <v>7</v>
-      </c>
-      <c r="P26" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="3">
+        <v>7</v>
+      </c>
       <c r="U26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V26" s="3">
         <v>6</v>
@@ -3691,28 +3694,26 @@
       <c r="W26" s="3">
         <v>6</v>
       </c>
-      <c r="X26" s="3">
-        <v>6</v>
-      </c>
+      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="3">
+        <v>7</v>
+      </c>
       <c r="AA26" s="3">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
+      <c r="AD26" s="3">
+        <v>7</v>
+      </c>
       <c r="AE26" s="3">
         <v>7</v>
       </c>
       <c r="AF26" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -3721,12 +3722,14 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
     </row>
-    <row r="27" spans="2:42">
-      <c r="B27" t="s">
+    <row r="27" spans="1:41">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
       <c r="C27" s="3">
         <v>7</v>
       </c>
@@ -3737,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="3">
         <v>7</v>
@@ -3749,22 +3752,22 @@
         <v>7</v>
       </c>
       <c r="J27" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
         <v>3</v>
       </c>
       <c r="L27" s="3">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>3</v>
-      </c>
-      <c r="M27" s="3">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
-        <v>5</v>
       </c>
       <c r="P27" s="3">
         <v>3</v>
@@ -3776,64 +3779,64 @@
         <v>3</v>
       </c>
       <c r="S27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U27" s="3">
         <v>7</v>
       </c>
       <c r="V27" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W27" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
       </c>
       <c r="Y27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA27" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB27" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD27" s="3">
         <v>2</v>
       </c>
       <c r="AE27" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF27" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG27" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="3">
         <v>1</v>
       </c>
       <c r="AJ27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL27" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM27" s="3">
         <v>7</v>
@@ -3844,89 +3847,87 @@
       <c r="AO27" s="3">
         <v>7</v>
       </c>
-      <c r="AP27" s="3">
-        <v>7</v>
-      </c>
     </row>
-    <row r="28" spans="2:42">
-      <c r="B28" t="s">
+    <row r="28" spans="1:41">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
       <c r="C28" s="3">
         <v>8</v>
       </c>
       <c r="D28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3">
         <v>7</v>
       </c>
-      <c r="G28" s="3">
-        <v>7</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <v>8</v>
-      </c>
-      <c r="M28" s="3"/>
+      <c r="K28" s="3">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <v>8</v>
+      </c>
       <c r="N28" s="3">
-        <v>8</v>
-      </c>
-      <c r="O28" s="3">
         <v>9</v>
       </c>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3">
+        <v>8</v>
+      </c>
       <c r="U28" s="3">
         <v>8</v>
       </c>
-      <c r="V28" s="3">
-        <v>8</v>
-      </c>
+      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3">
-        <v>8</v>
-      </c>
+      <c r="Y28" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3">
-        <v>8</v>
-      </c>
+      <c r="AE28" s="3">
+        <v>8</v>
+      </c>
+      <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
+      <c r="AI28" s="3">
+        <v>8</v>
+      </c>
       <c r="AJ28" s="3">
         <v>8</v>
       </c>
-      <c r="AK28" s="3">
-        <v>8</v>
-      </c>
+      <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="2:42">
-      <c r="B29" t="s">
+    <row r="29" spans="1:41">
+      <c r="A29" t="s">
         <v>67</v>
       </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3944,28 +3945,30 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3">
+        <v>5</v>
+      </c>
       <c r="U29" s="3">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
         <v>4</v>
       </c>
+      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE29" s="3"/>
+      <c r="AA29" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3">
+        <v>7</v>
+      </c>
       <c r="AF29" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG29" s="3">
         <v>4</v>
@@ -3974,381 +3977,379 @@
         <v>4</v>
       </c>
       <c r="AI29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK29" s="3">
-        <v>6</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
     </row>
-    <row r="30" spans="2:42">
-      <c r="B30" t="s">
+    <row r="30" spans="1:41">
+      <c r="A30" t="s">
         <v>68</v>
       </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
       <c r="C30" s="3">
         <v>6</v>
       </c>
-      <c r="D30" s="3">
-        <v>6</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>7</v>
+      </c>
       <c r="N30" s="3">
-        <v>7</v>
-      </c>
-      <c r="O30" s="3">
-        <v>6</v>
-      </c>
-      <c r="P30" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3">
+        <v>5</v>
+      </c>
       <c r="Q30" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R30" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S30" s="3">
-        <v>7</v>
-      </c>
-      <c r="T30" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3">
+      <c r="W30" s="3">
         <v>2</v>
       </c>
+      <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
+      <c r="AC30" s="3">
+        <v>6</v>
+      </c>
       <c r="AD30" s="3">
         <v>6</v>
       </c>
-      <c r="AE30" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3">
+        <v>10</v>
+      </c>
       <c r="AG30" s="3">
-        <v>10</v>
-      </c>
-      <c r="AH30" s="3">
         <v>4</v>
       </c>
-      <c r="AI30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3">
+        <v>6</v>
+      </c>
       <c r="AJ30" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK30" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL30" s="3">
         <v>3</v>
       </c>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3">
-        <v>5</v>
-      </c>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
     </row>
-    <row r="31" spans="2:42">
-      <c r="B31" t="s">
+    <row r="31" spans="1:41">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
       <c r="C31" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="3">
-        <v>8</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>7</v>
+      </c>
       <c r="G31" s="3">
         <v>7</v>
       </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3">
+        <v>7</v>
+      </c>
       <c r="N31" s="3">
-        <v>7</v>
-      </c>
-      <c r="O31" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="S31" s="3">
+        <v>5</v>
+      </c>
       <c r="T31" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U31" s="3">
-        <v>8</v>
-      </c>
-      <c r="V31" s="3">
         <v>9</v>
       </c>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3">
+      <c r="Y31" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3">
         <v>9</v>
       </c>
-      <c r="AG31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3">
+        <v>7</v>
+      </c>
       <c r="AH31" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>9</v>
       </c>
-      <c r="AJ31" s="3">
-        <v>6</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL31" s="3">
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
         <v>4</v>
       </c>
-      <c r="AM31" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>3</v>
-      </c>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:42">
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>6</v>
-      </c>
-      <c r="I32" s="3">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
-        <v>9</v>
-      </c>
-      <c r="L32" s="3">
-        <v>10</v>
-      </c>
-      <c r="M32" s="3"/>
       <c r="N32" s="3">
         <v>4</v>
       </c>
       <c r="O32" s="3">
+        <v>6</v>
+      </c>
+      <c r="P32" s="3">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4</v>
-      </c>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="3">
+        <v>3</v>
+      </c>
       <c r="U32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" s="3">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3">
+      <c r="Z32" s="3">
         <v>10</v>
       </c>
-      <c r="AB32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
       <c r="AC32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="3">
         <v>2</v>
       </c>
-      <c r="AE32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3">
+        <v>9</v>
+      </c>
       <c r="AF32" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG32" s="3">
-        <v>6</v>
-      </c>
-      <c r="AH32" s="3">
         <v>2</v>
       </c>
+      <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3">
-        <v>5</v>
-      </c>
+      <c r="AK32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
+      <c r="AN32" s="3">
+        <v>5</v>
+      </c>
       <c r="AO32" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP32" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:42">
-      <c r="B33" t="s">
+    <row r="33" spans="1:41">
+      <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
       <c r="D33" s="3">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
       <c r="I33" s="3">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
-        <v>6</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3">
-        <v>5</v>
-      </c>
+      <c r="M33" s="3">
+        <v>6</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3">
+        <v>5</v>
+      </c>
       <c r="S33" s="3">
         <v>5</v>
       </c>
-      <c r="T33" s="3">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3">
+        <v>4</v>
+      </c>
       <c r="V33" s="3">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3">
+      <c r="AA33" s="3">
         <v>4</v>
       </c>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3">
+        <v>7</v>
+      </c>
       <c r="AF33" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG33" s="3">
-        <v>6</v>
-      </c>
-      <c r="AH33" s="3">
         <v>4</v>
       </c>
+      <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3">
-        <v>5</v>
-      </c>
+      <c r="AK33" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3">
+      <c r="AO33" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:42">
-      <c r="B34" t="s">
+    <row r="34" spans="1:41">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="3">
-        <v>8</v>
-      </c>
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>8</v>
-      </c>
+      <c r="H34" s="3">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -4360,123 +4361,122 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3">
-        <v>8</v>
-      </c>
+      <c r="U34" s="3">
+        <v>8</v>
+      </c>
+      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3">
-        <v>8</v>
-      </c>
+      <c r="AA34" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
+      <c r="AF34" s="3">
+        <v>7</v>
+      </c>
       <c r="AG34" s="3">
         <v>7</v>
       </c>
-      <c r="AH34" s="3">
-        <v>7</v>
-      </c>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3">
-        <v>7</v>
-      </c>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3">
-        <v>7</v>
-      </c>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
     </row>
-    <row r="35" spans="2:42">
-      <c r="B35" t="s">
+    <row r="35" spans="1:41">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <v>8</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>7</v>
+      </c>
       <c r="I35" s="3">
         <v>7</v>
       </c>
-      <c r="J35" s="3">
-        <v>7</v>
-      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <v>8</v>
+      </c>
       <c r="N35" s="3">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3">
-        <v>8</v>
-      </c>
+      <c r="U35" s="3">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="3"/>
+      <c r="X35" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3">
+        <v>9</v>
+      </c>
       <c r="AA35" s="3">
-        <v>9</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC35" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3">
+        <v>7</v>
+      </c>
       <c r="AD35" s="3">
         <v>7</v>
       </c>
       <c r="AE35" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF35" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>7</v>
-      </c>
-      <c r="AH35" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3">
+        <v>7</v>
+      </c>
       <c r="AI35" s="3">
-        <v>7</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3">
+      <c r="AM35" s="3">
         <v>9</v>
       </c>
+      <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4494,7 +4494,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4510,7 +4510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
